--- a/data/simulated_data/case1_mse_min.xlsx
+++ b/data/simulated_data/case1_mse_min.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>201.68</t>
+          <t>201.86</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -454,7 +454,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(3.2)</t>
+          <t>(3.18)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>73.44</t>
+          <t>73.42</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">

--- a/data/simulated_data/case1_mse_min.xlsx
+++ b/data/simulated_data/case1_mse_min.xlsx
@@ -486,42 +486,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>% Decrease relative to RP full</t>
+          <t>% Decrease relative to RP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.97</t>
+          <t xml:space="preserve"> 0.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>73.42</t>
+          <t>68.73</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>56.72</t>
+          <t>49.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46.35</t>
+          <t>36.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17.27</t>
+          <t xml:space="preserve"> 2.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>82.10</t>
+          <t>78.94</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>99.74</t>
+          <t>99.70</t>
         </is>
       </c>
     </row>
